--- a/src/test/resources/excelimport/MatchesImportTemplate.xlsx
+++ b/src/test/resources/excelimport/MatchesImportTemplate.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Matches" sheetId="1" r:id="rId1"/>
+    <sheet name="Countries" sheetId="2" r:id="rId2"/>
+    <sheet name="Groups" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="230">
   <si>
     <t>Country 1</t>
   </si>
@@ -51,6 +53,669 @@
   </si>
   <si>
     <t>Westfalenstadion, Dortmund</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>ICELAND</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>NORTH_IRELAND</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>SLOVAKIA</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>CZECH_REPUBLIC</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>UKRAINE</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>WALES</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>ALGERIA</t>
+  </si>
+  <si>
+    <t>ANGOLA</t>
+  </si>
+  <si>
+    <t>EQUATORIAL_GUINEA</t>
+  </si>
+  <si>
+    <t>ETHIOPIA</t>
+  </si>
+  <si>
+    <t>BENIN</t>
+  </si>
+  <si>
+    <t>BURKINA_FASO</t>
+  </si>
+  <si>
+    <t>BURUNDI</t>
+  </si>
+  <si>
+    <t>DJIBOUTI</t>
+  </si>
+  <si>
+    <t>IVORY_COAST</t>
+  </si>
+  <si>
+    <t>ERITREA</t>
+  </si>
+  <si>
+    <t>GABON</t>
+  </si>
+  <si>
+    <t>GAMBIA</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>GUINEA</t>
+  </si>
+  <si>
+    <t>GUINEA_BISSEAU</t>
+  </si>
+  <si>
+    <t>BOTSWANA</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>CAPE_VERDE_ISLANDS</t>
+  </si>
+  <si>
+    <t>CENTRAL_AFRICAN_REPUBLIC</t>
+  </si>
+  <si>
+    <t>CHAD</t>
+  </si>
+  <si>
+    <t>COMOROS</t>
+  </si>
+  <si>
+    <t>CONGO</t>
+  </si>
+  <si>
+    <t>CONGO_DR</t>
+  </si>
+  <si>
+    <t>GUINEA_BISSAU</t>
+  </si>
+  <si>
+    <t>KENYA</t>
+  </si>
+  <si>
+    <t>LESOTHO</t>
+  </si>
+  <si>
+    <t>LIBERIA</t>
+  </si>
+  <si>
+    <t>LIBYA</t>
+  </si>
+  <si>
+    <t>MADAGASCAR</t>
+  </si>
+  <si>
+    <t>MALAWI</t>
+  </si>
+  <si>
+    <t>MALI</t>
+  </si>
+  <si>
+    <t>MAURITANIA</t>
+  </si>
+  <si>
+    <t>MAURITIUS</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>MOZAMBIQUE</t>
+  </si>
+  <si>
+    <t>NAMIBIA</t>
+  </si>
+  <si>
+    <t>NIGER</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>RWANDA</t>
+  </si>
+  <si>
+    <t>SAO_TOME_E_PRINCIPE</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>SEYCHELLES</t>
+  </si>
+  <si>
+    <t>SIERRA_LEONE</t>
+  </si>
+  <si>
+    <t>SOMALIA</t>
+  </si>
+  <si>
+    <t>SOUTH_AFRICA</t>
+  </si>
+  <si>
+    <t>SOUTH_SUDAN</t>
+  </si>
+  <si>
+    <t>SUDAN</t>
+  </si>
+  <si>
+    <t>SWAZILAND</t>
+  </si>
+  <si>
+    <t>TANZANIA</t>
+  </si>
+  <si>
+    <t>TOGO</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>UGANDA</t>
+  </si>
+  <si>
+    <t>ZAMBIA</t>
+  </si>
+  <si>
+    <t>AFGHANISTAN</t>
+  </si>
+  <si>
+    <t>BAHRAIN</t>
+  </si>
+  <si>
+    <t>BANGLADESH</t>
+  </si>
+  <si>
+    <t>BHUTAN</t>
+  </si>
+  <si>
+    <t>BRUNEI_DARUSSALAM</t>
+  </si>
+  <si>
+    <t>CAMBODIA</t>
+  </si>
+  <si>
+    <t>CHINA_PR</t>
+  </si>
+  <si>
+    <t>CHINESE_TAIPEI</t>
+  </si>
+  <si>
+    <t>GUAM</t>
+  </si>
+  <si>
+    <t>HONG_KONG</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>IRAQ</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>KOREA_DPR</t>
+  </si>
+  <si>
+    <t>KOREA_REPUBLIC</t>
+  </si>
+  <si>
+    <t>KUWAIT</t>
+  </si>
+  <si>
+    <t>KYRGYZSTAN</t>
+  </si>
+  <si>
+    <t>LAOS</t>
+  </si>
+  <si>
+    <t>LEBANON</t>
+  </si>
+  <si>
+    <t>MACAU</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>MALDIVES</t>
+  </si>
+  <si>
+    <t>MONGOLIA</t>
+  </si>
+  <si>
+    <t>MYANMAR</t>
+  </si>
+  <si>
+    <t>NEPAL</t>
+  </si>
+  <si>
+    <t>OMAN</t>
+  </si>
+  <si>
+    <t>PAKISTAN</t>
+  </si>
+  <si>
+    <t>PALESTINE</t>
+  </si>
+  <si>
+    <t>PHILIPPINES</t>
+  </si>
+  <si>
+    <t>QATAR</t>
+  </si>
+  <si>
+    <t>SAUDI_ARABIA</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>SRI_LANKA</t>
+  </si>
+  <si>
+    <t>SYRIA</t>
+  </si>
+  <si>
+    <t>TAJIKISTAN</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>TIMOR_LESTE</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN</t>
+  </si>
+  <si>
+    <t>UNITED_ARAB_EMIRATES</t>
+  </si>
+  <si>
+    <t>UZBEKISTAN</t>
+  </si>
+  <si>
+    <t>VIETNAM</t>
+  </si>
+  <si>
+    <t>YEMEN</t>
+  </si>
+  <si>
+    <t>ANDORRA</t>
+  </si>
+  <si>
+    <t>ARMENIA</t>
+  </si>
+  <si>
+    <t>AZERBAIJAN</t>
+  </si>
+  <si>
+    <t>BELARUS</t>
+  </si>
+  <si>
+    <t>BOSNIA_HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>BULGARIA</t>
+  </si>
+  <si>
+    <t>CYPRUS</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>ESTONIA</t>
+  </si>
+  <si>
+    <t>FAROE_ISLANDS</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t>FYR_MACEDONIA</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>GIBRALTAR</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KAZAKHSTAN</t>
+  </si>
+  <si>
+    <t>KOSOVO</t>
+  </si>
+  <si>
+    <t>LATVIA</t>
+  </si>
+  <si>
+    <t>LIECHTENSTEIN</t>
+  </si>
+  <si>
+    <t>LITHUANIA</t>
+  </si>
+  <si>
+    <t>LUXEMBOURG</t>
+  </si>
+  <si>
+    <t>MALTA</t>
+  </si>
+  <si>
+    <t>MOLDOVA</t>
+  </si>
+  <si>
+    <t>MONTENEGRO</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>SAN_MARINO</t>
+  </si>
+  <si>
+    <t>SCOTLAND</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>ANGUILLA</t>
+  </si>
+  <si>
+    <t>ANTIGUA_AND_BARBUDA</t>
+  </si>
+  <si>
+    <t>ARUBA</t>
+  </si>
+  <si>
+    <t>BAHAMAS</t>
+  </si>
+  <si>
+    <t>BARBADOS</t>
+  </si>
+  <si>
+    <t>BELIZE</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>BRITISH_VIRGIN_ISLANDS</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>CAYMAN_ISLANDS</t>
+  </si>
+  <si>
+    <t>COSTA_RICA</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>CURACAO</t>
+  </si>
+  <si>
+    <t>DOMINICA</t>
+  </si>
+  <si>
+    <t>DOMINICAN_REPUBLIC</t>
+  </si>
+  <si>
+    <t>EL_SALVADOR</t>
+  </si>
+  <si>
+    <t>GRENADA</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>GUYANA</t>
+  </si>
+  <si>
+    <t>HAITI</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MONTSERRAT</t>
+  </si>
+  <si>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>PUERTO_RICO</t>
+  </si>
+  <si>
+    <t>ST_KITTS_AND_NEVIS</t>
+  </si>
+  <si>
+    <t>ST_LUCIA</t>
+  </si>
+  <si>
+    <t>ST_VINCENT_GRENADINES</t>
+  </si>
+  <si>
+    <t>SURINAME</t>
+  </si>
+  <si>
+    <t>TRINIDAD_AND_TOBAGO</t>
+  </si>
+  <si>
+    <t>TURKS_AND_CAICOS_ISLANDS</t>
+  </si>
+  <si>
+    <t>US_VIRGIN_ISLANDS</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>AMERICAN_SAMOA</t>
+  </si>
+  <si>
+    <t>COOK_ISLANDS</t>
+  </si>
+  <si>
+    <t>FIJI</t>
+  </si>
+  <si>
+    <t>NEW_CALEDONIA</t>
+  </si>
+  <si>
+    <t>NEW_ZEALAND</t>
+  </si>
+  <si>
+    <t>PAPUA_NEW_GUINEA</t>
+  </si>
+  <si>
+    <t>SAMOA</t>
+  </si>
+  <si>
+    <t>SOLOMON_ISLANDS</t>
+  </si>
+  <si>
+    <t>TAHITI</t>
+  </si>
+  <si>
+    <t>TONGA</t>
+  </si>
+  <si>
+    <t>VANUATU</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>BOLIVIA</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>ECUADOR</t>
+  </si>
+  <si>
+    <t>PARAGUAY</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>VENEZUELA</t>
+  </si>
+  <si>
+    <t>GROUP_B</t>
+  </si>
+  <si>
+    <t>GROUP_C</t>
+  </si>
+  <si>
+    <t>GROUP_D</t>
+  </si>
+  <si>
+    <t>GROUP_E</t>
+  </si>
+  <si>
+    <t>GROUP_F</t>
+  </si>
+  <si>
+    <t>GROUP_G</t>
+  </si>
+  <si>
+    <t>GROUP_H</t>
+  </si>
+  <si>
+    <t>ROUND_OF_SIXTEEN</t>
+  </si>
+  <si>
+    <t>QUARTER_FINAL</t>
+  </si>
+  <si>
+    <t>SEMI_FINAL</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>GAME_FOR_THIRD</t>
+  </si>
+  <si>
+    <t>Allianz Arena, München</t>
   </si>
 </sst>
 </file>
@@ -418,18 +1083,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -458,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D2" s="2">
         <v>42887.75</v>
@@ -467,8 +1132,2509 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43136.833333333336</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D440" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Countries!$A$1:$A$210</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:B440</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Groups!$A$1:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C440</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A210"/>
+  <sheetViews>
+    <sheetView topLeftCell="A191" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A210">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/excelimport/MatchesImportTemplate.xlsx
+++ b/src/test/resources/excelimport/MatchesImportTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="233">
   <si>
     <t>Country 1</t>
   </si>
@@ -716,6 +716,15 @@
   </si>
   <si>
     <t>Allianz Arena, München</t>
+  </si>
+  <si>
+    <t>Sieger Gruppe A</t>
+  </si>
+  <si>
+    <t>Zweiter Gruppe B</t>
+  </si>
+  <si>
+    <t>Kasan</t>
   </si>
 </sst>
 </file>
@@ -765,10 +774,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1086,7 +1098,7 @@
   <dimension ref="A1:E440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1162,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
+      <c r="A4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42914.833333333336</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
@@ -2466,18 +2492,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Countries!$A$1:$A$210</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:B440</xm:sqref>
+          <xm:sqref>B4:B440 B2 A2 A4:A440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Groups!$A$1:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C440</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>Countries!$A$1:$A$210</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3 A3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
